--- a/Outputs/RIF/Tables/popPK_CFRs.xlsx
+++ b/Outputs/RIF/Tables/popPK_CFRs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="100" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="405" uniqueCount="10">
   <si>
     <t>Oral Dose</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Day 4, n = 1000</t>
+  </si>
+  <si>
+    <t>Day 4, n = 100</t>
+  </si>
+  <si>
+    <t>Day 4, n = 50</t>
+  </si>
+  <si>
+    <t>Day 1, n = 100</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -443,10 +452,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>80.829999999999998</v>
+        <v>80.680000000000007</v>
       </c>
       <c r="C2" s="0">
-        <v>19.07</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -454,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>81.959999999999994</v>
+        <v>81.909999999999997</v>
       </c>
       <c r="C3" s="0">
-        <v>38.219999999999999</v>
+        <v>39.229999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -473,14 +482,14 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="true"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
     <col min="2" max="2" width="15.36328125" customWidth="true"/>
     <col min="3" max="3" width="16.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -494,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>65.310000000000002</v>
+        <v>61.689999999999998</v>
       </c>
       <c r="C2" s="0">
-        <v>8.8100000000000005</v>
+        <v>7.4199999999999999</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -505,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>66.290000000000006</v>
+        <v>62.270000000000003</v>
       </c>
       <c r="C3" s="0">
-        <v>14.699999999999999</v>
+        <v>12.859999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -524,14 +533,14 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="true"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
     <col min="2" max="2" width="15.36328125" customWidth="true"/>
     <col min="3" max="3" width="16.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>49.75</v>
+        <v>5.5700000000000003</v>
       </c>
       <c r="C2" s="0">
-        <v>0.87</v>
+        <v>0.02</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -556,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>51.390000000000001</v>
+        <v>5.8799999999999999</v>
       </c>
       <c r="C3" s="0">
-        <v>0.96999999999999997</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -577,14 +586,14 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="true"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
     <col min="2" max="2" width="15.36328125" customWidth="true"/>
     <col min="3" max="3" width="16.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -598,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>71.890000000000001</v>
+        <v>67.890000000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>10.720000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -609,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>72.340000000000003</v>
+        <v>66.480000000000004</v>
       </c>
       <c r="C3" s="0">
-        <v>10.4</v>
+        <v>7.9800000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/popPK_CFRs.xlsx
+++ b/Outputs/RIF/Tables/popPK_CFRs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="405" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="13">
   <si>
     <t>Oral Dose</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>Day 1, n = 100</t>
+  </si>
+  <si>
+    <t>Day 1, n = 1</t>
+  </si>
+  <si>
+    <t>Day 1, n = 10</t>
+  </si>
+  <si>
+    <t>Day 1, n = 1000</t>
   </si>
 </sst>
 </file>
@@ -438,7 +447,7 @@
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -452,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>80.680000000000007</v>
+        <v>78.849999999999994</v>
       </c>
       <c r="C2" s="0">
-        <v>19.079999999999998</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -463,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>81.909999999999997</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="C3" s="0">
-        <v>39.229999999999997</v>
+        <v>36.450000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/popPK_CFRs.xlsx
+++ b/Outputs/RIF/Tables/popPK_CFRs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="520" uniqueCount="15">
   <si>
     <t>Oral Dose</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Day 1, n = 1000</t>
+  </si>
+  <si>
+    <t>Day 1, n = 5</t>
+  </si>
+  <si>
+    <t>Day 4, n = 1</t>
   </si>
 </sst>
 </file>
@@ -440,14 +446,14 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="true"/>
+    <col min="1" max="1" width="10.453125" customWidth="true"/>
     <col min="2" max="2" width="15.36328125" customWidth="true"/>
     <col min="3" max="3" width="16.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -461,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>78.849999999999994</v>
+        <v>82.299999999999997</v>
       </c>
       <c r="C2" s="0">
-        <v>16.600000000000001</v>
+        <v>19.66</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -472,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>79.790000000000006</v>
+        <v>83.11</v>
       </c>
       <c r="C3" s="0">
-        <v>36.450000000000003</v>
+        <v>38.520000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -491,14 +497,14 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="true"/>
+    <col min="1" max="1" width="10.453125" customWidth="true"/>
     <col min="2" max="2" width="15.36328125" customWidth="true"/>
     <col min="3" max="3" width="16.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -512,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>61.689999999999998</v>
+        <v>67.329999999999998</v>
       </c>
       <c r="C2" s="0">
-        <v>7.4199999999999999</v>
+        <v>9.1799999999999997</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -523,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>62.270000000000003</v>
+        <v>67.930000000000007</v>
       </c>
       <c r="C3" s="0">
-        <v>12.859999999999999</v>
+        <v>14.720000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -542,14 +548,14 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="true"/>
+    <col min="1" max="1" width="13.453125" customWidth="true"/>
     <col min="2" max="2" width="15.36328125" customWidth="true"/>
     <col min="3" max="3" width="16.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -563,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>5.5700000000000003</v>
+        <v>36.240000000000002</v>
       </c>
       <c r="C2" s="0">
-        <v>0.02</v>
+        <v>0.54000000000000004</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -574,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>5.8799999999999999</v>
+        <v>37.61</v>
       </c>
       <c r="C3" s="0">
-        <v>0.02</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -595,14 +601,14 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="true"/>
+    <col min="1" max="1" width="13.453125" customWidth="true"/>
     <col min="2" max="2" width="15.36328125" customWidth="true"/>
     <col min="3" max="3" width="16.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -616,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>67.890000000000001</v>
+        <v>73.739999999999995</v>
       </c>
       <c r="C2" s="0">
-        <v>8.8000000000000007</v>
+        <v>12.09</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
@@ -627,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>66.480000000000004</v>
+        <v>73.980000000000004</v>
       </c>
       <c r="C3" s="0">
-        <v>7.9800000000000004</v>
+        <v>11.949999999999999</v>
       </c>
     </row>
   </sheetData>
